--- a/www/assets/PokeData_Excel.xlsx
+++ b/www/assets/PokeData_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/I211_PHP/PokeData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/I211_PHP/PokeData/www/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A12C04-E95A-E546-8E6A-D4226E3097BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{133EABC6-9407-2F41-B970-D4088F93AD0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{45F39404-F476-034F-92F6-B6B307C9A915}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="741">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="742">
   <si>
     <t>HP</t>
   </si>
@@ -1362,456 +1362,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>https://img.pokemondb.net/artwork/bulbasaur.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/ivysaur.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/venusaur.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/charmander.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/charmeleon.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/charizard.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/squirtle.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/wartortle.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/blastoise.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/caterpie.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/metapod.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/butterfree.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/weedle.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/kakuna.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/beedrill.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/pidgey.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/pidgeotto.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/pidgeot.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/mew.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/rattata.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/raticate.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/spearow.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/fearow.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/ekans.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/arbok.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/pikachu.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/raichu.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/sandshrew.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/sandslash.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/nidoran.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/nidorina.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/nidoqueen.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/nidorino.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/nidoking.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/clefairy.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/clefable.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/vulpix.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/ninetales.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/jigglypuff.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/wigglytuff.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/zubat.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/golbat.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/oddish.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/gloom.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/vileplume.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/paras.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/parasect.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/venonat.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/venomoth.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/diglett.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/dugtrio.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/meowth.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/persian.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/psyduck.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/golduck.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/mankey.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/primeape.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/growlithe.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/arcanine.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/poliwag.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/poliwhirl.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/poliwrath.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/abra.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/kadabra.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/alakazam.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/machop.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/machoke.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/machamp.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/bellsprout.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/weepinbell.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/victreebel.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/tentacool.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/tentacruel.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/geodude.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/graveler.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/golem.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/ponyta.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/rapidash.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/slowpoke.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/slowbro.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/magnemite.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/magneton.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/farfetch'd.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/doduo.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/dodrio.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/seel.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/dewgong.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/grimer.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/muk.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/shellder.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/cloyster.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/gastly.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/haunter.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/gengar.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/onix.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/drowzee.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/hypno.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/krabby.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/kingler.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/voltorb.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/electrode.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/exeggcute.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/exeggutor.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/cubone.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/marowak.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/hitmonlee.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/hitmonchan.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/lickitung.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/koffing.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/weezing.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/rhyhorn.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/rhydon.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/chansey.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/tangela.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/kangaskhan.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/horsea.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/seadra.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/goldeen.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/seaking.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/staryu.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/starmie.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/mr. mime.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/scyther.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/jynx.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/electabuzz.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/magmar.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/pinsir.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/tauros.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/magikarp.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/gyarados.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/lapras.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/ditto.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/eevee.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/vaporeon.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/jolteon.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/flareon.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/porygon.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/omanyte.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/omastar.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/kabuto.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/kabutops.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/aerodactyl.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/snorlax.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/articuno.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/zapdos.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/moltres.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/dratini.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/dragonair.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/dragonite.jpg</t>
-  </si>
-  <si>
-    <t>https://img.pokemondb.net/artwork/mewtwo.jpg</t>
-  </si>
-  <si>
     <t>Playable character in Super Smash Bros. Brawl and Super Smash Bros. Ultimate as a part of the "Pokémon Trainer" fighter. Its English name is a portmanteau of "ivy" and "dinosaur".</t>
   </si>
   <si>
@@ -2257,13 +1807,466 @@
   </si>
   <si>
     <t>A mystical POKéMON that exudes a gentle aura. Has the ability to change climate conditions.</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/bulbasaur.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/ivysaur.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/venusaur.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/charmander.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/charmeleon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/charizard.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/squirtle.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/wartortle.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/blastoise.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/caterpie.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/metapod.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/butterfree.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/weedle.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/kakuna.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/beedrill.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/pidgey.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/pidgeotto.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/pidgeot.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/rattata.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/raticate.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/spearow.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/fearow.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/ekans.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/arbok.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/pikachu.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/raichu.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/sandshrew.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/sandslash.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/nidorina.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/nidoqueen.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/nidorino.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/nidoking.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/clefairy.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/clefable.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/vulpix.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/ninetales.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/jigglypuff.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/wigglytuff.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/zubat.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/golbat.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/oddish.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/gloom.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/vileplume.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/paras.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/parasect.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/venonat.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/venomoth.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/diglett.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/dugtrio.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/meowth.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/persian.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/psyduck.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/golduck.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/mankey.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/primeape.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/growlithe.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/arcanine.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/poliwag.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/poliwhirl.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/poliwrath.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/abra.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/kadabra.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/alakazam.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/machop.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/machoke.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/machamp.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/bellsprout.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/weepinbell.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/victreebel.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/tentacool.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/tentacruel.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/geodude.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/graveler.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/golem.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/ponyta.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/rapidash.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/slowpoke.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/slowbro.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/magnemite.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/magneton.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/doduo.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/dodrio.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/seel.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/dewgong.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/grimer.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/muk.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/shellder.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/cloyster.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/gastly.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/haunter.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/gengar.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/onix.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/drowzee.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/hypno.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/krabby.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/kingler.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/voltorb.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/electrode.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/exeggcute.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/exeggutor.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/cubone.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/marowak.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/hitmonlee.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/hitmonchan.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/lickitung.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/koffing.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/weezing.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/rhyhorn.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/rhydon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/chansey.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/tangela.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/kangaskhan.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/horsea.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/seadra.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/goldeen.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/seaking.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/staryu.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/starmie.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/scyther.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/jynx.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/electabuzz.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/magmar.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/pinsir.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/tauros.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/magikarp.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/gyarados.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/lapras.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/ditto.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/eevee.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/vaporeon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/jolteon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/flareon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/porygon.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/omanyte.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/omastar.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/kabuto.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/kabutops.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/aerodactyl.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/snorlax.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/articuno.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/zapdos.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/moltres.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/dratini.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/dragonair.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/dragonite.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/mewtwo.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/mew.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/mr-mime.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/farfetchd.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/nidoran-f.png</t>
+  </si>
+  <si>
+    <t>https://img.pokemondb.net/sprites/black-white/normal/nidoran-m.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2283,6 +2286,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2308,18 +2319,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2634,8 +2653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02829BD7-A9D2-8C42-818A-8FCD48B61965}">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="184" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2643,7 +2662,7 @@
     <col min="1" max="2" width="10.83203125" style="1"/>
     <col min="3" max="14" width="10.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="60.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="50.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="63.83203125" style="1" customWidth="1"/>
     <col min="17" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -2697,7 +2716,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2723,7 +2742,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -2738,16 +2757,16 @@
         <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2773,7 +2792,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
@@ -2791,13 +2810,13 @@
         <v>20</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2823,7 +2842,7 @@
         <v>13</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -2841,13 +2860,13 @@
         <v>23</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2867,13 +2886,13 @@
         <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -2888,16 +2907,16 @@
         <v>17</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2917,13 +2936,13 @@
         <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
@@ -2941,13 +2960,13 @@
         <v>20</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="P6" s="4" t="s">
         <v>595</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="65" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2973,7 +2992,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -2991,13 +3010,13 @@
         <v>36</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="P7" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+      <c r="P7" s="4" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3017,13 +3036,13 @@
         <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>40</v>
@@ -3038,16 +3057,16 @@
         <v>17</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>598</v>
-      </c>
-      <c r="P8" s="1" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="P8" s="4" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3067,13 +3086,13 @@
         <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>40</v>
@@ -3091,13 +3110,13 @@
         <v>20</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>599</v>
-      </c>
-      <c r="P9" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P9" s="4" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3117,13 +3136,13 @@
         <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
@@ -3141,13 +3160,13 @@
         <v>36</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="P10" s="1" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P10" s="4" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3167,13 +3186,13 @@
         <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>50</v>
@@ -3188,16 +3207,16 @@
         <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>601</v>
-      </c>
-      <c r="P11" s="1" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P11" s="4" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3217,16 +3236,16 @@
         <v>48</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>55</v>
@@ -3241,13 +3260,13 @@
         <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="P12" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P12" s="4" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3273,7 +3292,7 @@
         <v>58</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>59</v>
@@ -3291,13 +3310,13 @@
         <v>62</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="P13" s="1" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P13" s="4" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3323,10 +3342,10 @@
         <v>49</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>64</v>
@@ -3338,16 +3357,16 @@
         <v>52</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="P14" s="1" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="P14" s="4" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3373,10 +3392,10 @@
         <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>67</v>
@@ -3391,13 +3410,13 @@
         <v>56</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="P15" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P15" s="4" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3423,10 +3442,10 @@
         <v>70</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>72</v>
@@ -3441,13 +3460,13 @@
         <v>62</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="P16" s="1" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P16" s="4" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3488,16 +3507,16 @@
         <v>52</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="P17" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P17" s="4" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3541,13 +3560,13 @@
         <v>81</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="P18" s="1" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P18" s="4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3591,13 +3610,13 @@
         <v>36</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="P19" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+      <c r="P19" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3617,7 +3636,7 @@
         <v>74</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>50</v>
@@ -3638,16 +3657,16 @@
         <v>52</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3667,7 +3686,7 @@
         <v>74</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>50</v>
@@ -3691,13 +3710,13 @@
         <v>91</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3723,7 +3742,7 @@
         <v>75</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>71</v>
@@ -3738,16 +3757,16 @@
         <v>52</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3773,7 +3792,7 @@
         <v>75</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
@@ -3791,13 +3810,13 @@
         <v>91</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>463</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3817,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>97</v>
@@ -3826,7 +3845,7 @@
         <v>54</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>15</v>
@@ -3838,16 +3857,16 @@
         <v>52</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="65" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3867,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>97</v>
@@ -3876,7 +3895,7 @@
         <v>54</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>100</v>
@@ -3891,13 +3910,13 @@
         <v>101</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="78" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="79" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3917,13 +3936,13 @@
         <v>103</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>105</v>
@@ -3941,13 +3960,13 @@
         <v>107</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="P26" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3967,13 +3986,13 @@
         <v>103</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>105</v>
@@ -3991,13 +4010,13 @@
         <v>109</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4017,16 +4036,16 @@
         <v>111</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>113</v>
@@ -4038,16 +4057,16 @@
         <v>52</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4067,16 +4086,16 @@
         <v>111</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>72</v>
@@ -4091,63 +4110,63 @@
         <v>101</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="P29" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="5" customFormat="1" ht="53" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="5">
+        <v>55</v>
+      </c>
+      <c r="D30" s="5">
+        <v>47</v>
+      </c>
+      <c r="E30" s="5">
+        <v>52</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N30" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" ht="52" x14ac:dyDescent="0.15">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="1">
-        <v>55</v>
-      </c>
-      <c r="D30" s="1">
-        <v>47</v>
-      </c>
-      <c r="E30" s="1">
-        <v>52</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="P30" s="7" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4167,7 +4186,7 @@
         <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>116</v>
@@ -4191,13 +4210,13 @@
         <v>20</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="P31" s="1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>471</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4241,63 +4260,63 @@
         <v>125</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="P32" s="1" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="26" x14ac:dyDescent="0.15">
-      <c r="A33" s="1">
+        <v>472</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="5">
         <v>46</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="5">
         <v>57</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="5">
         <v>40</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H33" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="N33" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="P33" s="1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="N33" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4317,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>116</v>
@@ -4341,13 +4360,13 @@
         <v>20</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>569</v>
+      </c>
+      <c r="P34" s="4" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4391,13 +4410,13 @@
         <v>125</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>623</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>473</v>
+      </c>
+      <c r="P35" s="4" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4417,7 +4436,7 @@
         <v>74</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>133</v>
@@ -4426,7 +4445,7 @@
         <v>134</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>136</v>
@@ -4441,13 +4460,13 @@
         <v>107</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>474</v>
+      </c>
+      <c r="P36" s="4" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4467,7 +4486,7 @@
         <v>74</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>133</v>
@@ -4476,7 +4495,7 @@
         <v>134</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>140</v>
@@ -4491,13 +4510,13 @@
         <v>125</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>475</v>
+      </c>
+      <c r="P37" s="4" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4517,13 +4536,13 @@
         <v>25</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>143</v>
@@ -4538,16 +4557,16 @@
         <v>138</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="P38" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>476</v>
+      </c>
+      <c r="P38" s="4" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4567,13 +4586,13 @@
         <v>25</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>143</v>
@@ -4591,13 +4610,13 @@
         <v>146</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="P39" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>477</v>
+      </c>
+      <c r="P39" s="4" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4617,13 +4636,13 @@
         <v>74</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>135</v>
@@ -4641,13 +4660,13 @@
         <v>107</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>478</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4667,13 +4686,13 @@
         <v>74</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>133</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>150</v>
@@ -4691,13 +4710,13 @@
         <v>125</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>479</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4723,7 +4742,7 @@
         <v>152</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>153</v>
@@ -4738,16 +4757,16 @@
         <v>52</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="P42" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>480</v>
+      </c>
+      <c r="P42" s="4" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4773,7 +4792,7 @@
         <v>152</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>153</v>
@@ -4791,13 +4810,13 @@
         <v>101</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="P43" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>481</v>
+      </c>
+      <c r="P43" s="4" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4823,7 +4842,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>50</v>
@@ -4838,16 +4857,16 @@
         <v>52</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="P44" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>482</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4873,7 +4892,7 @@
         <v>14</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>159</v>
@@ -4891,13 +4910,13 @@
         <v>101</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="P45" s="1" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+        <v>483</v>
+      </c>
+      <c r="P45" s="4" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4923,7 +4942,7 @@
         <v>14</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>162</v>
@@ -4941,13 +4960,13 @@
         <v>164</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="P46" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>484</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4976,7 +4995,7 @@
         <v>166</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>157</v>
@@ -4988,16 +5007,16 @@
         <v>52</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>485</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5026,7 +5045,7 @@
         <v>166</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>72</v>
@@ -5041,13 +5060,13 @@
         <v>169</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="P48" s="1" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>487</v>
+      </c>
+      <c r="P48" s="4" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5076,7 +5095,7 @@
         <v>59</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>80</v>
@@ -5088,16 +5107,16 @@
         <v>52</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="P49" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="O49" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="50" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5126,7 +5145,7 @@
         <v>59</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>172</v>
@@ -5141,13 +5160,13 @@
         <v>173</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>567</v>
+      </c>
+      <c r="P50" s="4" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5167,7 +5186,7 @@
         <v>111</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>112</v>
@@ -5176,7 +5195,7 @@
         <v>175</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>176</v>
@@ -5188,16 +5207,16 @@
         <v>52</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O51" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="P51" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5217,7 +5236,7 @@
         <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>112</v>
@@ -5226,7 +5245,7 @@
         <v>175</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>178</v>
@@ -5241,13 +5260,13 @@
         <v>179</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="P52" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+        <v>570</v>
+      </c>
+      <c r="P52" s="4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5267,7 +5286,7 @@
         <v>74</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>181</v>
@@ -5276,7 +5295,7 @@
         <v>182</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>183</v>
@@ -5288,16 +5307,16 @@
         <v>52</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>489</v>
+      </c>
+      <c r="P53" s="4" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5317,7 +5336,7 @@
         <v>74</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>185</v>
@@ -5326,7 +5345,7 @@
         <v>182</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>60</v>
@@ -5341,13 +5360,13 @@
         <v>186</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>490</v>
+      </c>
+      <c r="P54" s="4" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5367,7 +5386,7 @@
         <v>38</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>167</v>
@@ -5388,16 +5407,16 @@
         <v>52</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="P55" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>491</v>
+      </c>
+      <c r="P55" s="4" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5417,7 +5436,7 @@
         <v>38</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>167</v>
@@ -5441,13 +5460,13 @@
         <v>193</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+        <v>492</v>
+      </c>
+      <c r="P56" s="4" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -5467,7 +5486,7 @@
         <v>195</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>196</v>
@@ -5476,7 +5495,7 @@
         <v>197</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>199</v>
@@ -5488,16 +5507,16 @@
         <v>52</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>493</v>
+      </c>
+      <c r="P57" s="4" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -5517,7 +5536,7 @@
         <v>195</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>196</v>
@@ -5526,7 +5545,7 @@
         <v>197</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>60</v>
@@ -5541,13 +5560,13 @@
         <v>186</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="P58" s="1" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+        <v>494</v>
+      </c>
+      <c r="P58" s="4" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -5567,7 +5586,7 @@
         <v>25</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>97</v>
@@ -5588,16 +5607,16 @@
         <v>203</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="P59" s="1" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>495</v>
+      </c>
+      <c r="P59" s="4" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -5617,7 +5636,7 @@
         <v>25</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>97</v>
@@ -5641,13 +5660,13 @@
         <v>146</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="P60" s="1" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>496</v>
+      </c>
+      <c r="P60" s="4" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -5667,7 +5686,7 @@
         <v>38</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>207</v>
@@ -5688,16 +5707,16 @@
         <v>52</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -5717,7 +5736,7 @@
         <v>38</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>207</v>
@@ -5741,13 +5760,13 @@
         <v>210</v>
       </c>
       <c r="O62" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="P62" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="63" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -5791,13 +5810,13 @@
         <v>213</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+      <c r="P63" s="4" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -5817,7 +5836,7 @@
         <v>215</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>216</v>
@@ -5826,7 +5845,7 @@
         <v>152</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>129</v>
@@ -5838,16 +5857,16 @@
         <v>203</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="P64" s="1" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="65" x14ac:dyDescent="0.15">
+        <v>500</v>
+      </c>
+      <c r="P64" s="4" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -5867,7 +5886,7 @@
         <v>215</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>216</v>
@@ -5876,7 +5895,7 @@
         <v>152</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K65" s="1" t="s">
         <v>218</v>
@@ -5891,13 +5910,13 @@
         <v>20</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="P65" s="1" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>501</v>
+      </c>
+      <c r="P65" s="4" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -5917,7 +5936,7 @@
         <v>215</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>216</v>
@@ -5926,7 +5945,7 @@
         <v>152</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>220</v>
@@ -5941,13 +5960,13 @@
         <v>221</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>502</v>
+      </c>
+      <c r="P66" s="4" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -5967,7 +5986,7 @@
         <v>195</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>85</v>
@@ -5976,7 +5995,7 @@
         <v>223</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>129</v>
@@ -5988,16 +6007,16 @@
         <v>203</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>503</v>
+      </c>
+      <c r="P67" s="4" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6017,7 +6036,7 @@
         <v>195</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>85</v>
@@ -6026,7 +6045,7 @@
         <v>223</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>227</v>
@@ -6041,13 +6060,13 @@
         <v>186</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>571</v>
+      </c>
+      <c r="P68" s="4" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6067,7 +6086,7 @@
         <v>195</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>85</v>
@@ -6076,7 +6095,7 @@
         <v>223</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>229</v>
@@ -6091,13 +6110,13 @@
         <v>221</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+      <c r="P69" s="4" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6123,7 +6142,7 @@
         <v>14</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>231</v>
@@ -6138,16 +6157,16 @@
         <v>52</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>572</v>
+      </c>
+      <c r="P70" s="4" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6173,7 +6192,7 @@
         <v>14</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>231</v>
@@ -6191,13 +6210,13 @@
         <v>235</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>505</v>
+      </c>
+      <c r="P71" s="4" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6223,7 +6242,7 @@
         <v>14</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>231</v>
@@ -6241,13 +6260,13 @@
         <v>164</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>573</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6288,16 +6307,16 @@
         <v>52</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>506</v>
+      </c>
+      <c r="P73" s="4" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6341,13 +6360,13 @@
         <v>243</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>574</v>
+      </c>
+      <c r="P74" s="4" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6376,7 +6395,7 @@
         <v>247</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>121</v>
@@ -6388,16 +6407,16 @@
         <v>52</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>657</v>
-      </c>
-      <c r="P75" s="1" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>507</v>
+      </c>
+      <c r="P75" s="4" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6426,7 +6445,7 @@
         <v>247</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>249</v>
@@ -6441,13 +6460,13 @@
         <v>210</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="P76" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>575</v>
+      </c>
+      <c r="P76" s="4" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6476,7 +6495,7 @@
         <v>247</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>251</v>
@@ -6491,13 +6510,13 @@
         <v>221</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>726</v>
-      </c>
-      <c r="P77" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>576</v>
+      </c>
+      <c r="P77" s="4" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6517,7 +6536,7 @@
         <v>25</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>50</v>
@@ -6538,16 +6557,16 @@
         <v>52</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="P78" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>508</v>
+      </c>
+      <c r="P78" s="4" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6567,7 +6586,7 @@
         <v>25</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>50</v>
@@ -6591,13 +6610,13 @@
         <v>256</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="P79" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>509</v>
+      </c>
+      <c r="P79" s="4" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6638,16 +6657,16 @@
         <v>52</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>510</v>
+      </c>
+      <c r="P80" s="4" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6691,13 +6710,13 @@
         <v>264</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="P81" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>511</v>
+      </c>
+      <c r="P81" s="4" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6726,7 +6745,7 @@
         <v>247</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>106</v>
@@ -6738,16 +6757,16 @@
         <v>269</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="P82" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>512</v>
+      </c>
+      <c r="P82" s="4" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6776,7 +6795,7 @@
         <v>247</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>124</v>
@@ -6791,63 +6810,63 @@
         <v>243</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" ht="39" x14ac:dyDescent="0.15">
-      <c r="A84" s="1">
+        <v>577</v>
+      </c>
+      <c r="P83" s="4" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" s="5" customFormat="1" ht="40" x14ac:dyDescent="0.2">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="5">
         <v>52</v>
       </c>
-      <c r="D84" s="1">
+      <c r="D84" s="5">
         <v>65</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="5">
         <v>55</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F84" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G84" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H84" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="K84" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L84" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M84" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N84" s="1" t="s">
+      <c r="N84" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="O84" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+      <c r="O84" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="P84" s="7" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6888,16 +6907,16 @@
         <v>52</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>578</v>
+      </c>
+      <c r="P85" s="4" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6941,13 +6960,13 @@
         <v>173</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>579</v>
+      </c>
+      <c r="P86" s="4" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6967,7 +6986,7 @@
         <v>38</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>280</v>
@@ -6976,7 +6995,7 @@
         <v>281</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>282</v>
@@ -6988,16 +7007,16 @@
         <v>52</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>580</v>
+      </c>
+      <c r="P87" s="4" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -7026,7 +7045,7 @@
         <v>281</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>285</v>
@@ -7041,13 +7060,13 @@
         <v>286</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="P88" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>581</v>
+      </c>
+      <c r="P88" s="4" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -7067,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>159</v>
@@ -7076,7 +7095,7 @@
         <v>288</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>80</v>
@@ -7088,16 +7107,16 @@
         <v>52</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="P89" s="1" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>514</v>
+      </c>
+      <c r="P89" s="4" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -7117,7 +7136,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>159</v>
@@ -7126,7 +7145,7 @@
         <v>288</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K90" s="1" t="s">
         <v>80</v>
@@ -7141,13 +7160,13 @@
         <v>290</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="P90" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>582</v>
+      </c>
+      <c r="P90" s="4" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -7167,7 +7186,7 @@
         <v>38</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>292</v>
@@ -7176,7 +7195,7 @@
         <v>293</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>232</v>
@@ -7188,16 +7207,16 @@
         <v>52</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>583</v>
+      </c>
+      <c r="P91" s="4" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -7226,7 +7245,7 @@
         <v>293</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>295</v>
@@ -7241,13 +7260,13 @@
         <v>213</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>584</v>
+      </c>
+      <c r="P92" s="4" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -7273,10 +7292,10 @@
         <v>298</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>299</v>
@@ -7288,16 +7307,16 @@
         <v>52</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="P93" s="1" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>515</v>
+      </c>
+      <c r="P93" s="4" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -7323,10 +7342,10 @@
         <v>298</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>299</v>
@@ -7341,13 +7360,13 @@
         <v>210</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="P94" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>585</v>
+      </c>
+      <c r="P94" s="4" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -7373,10 +7392,10 @@
         <v>298</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>302</v>
@@ -7391,13 +7410,13 @@
         <v>221</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>516</v>
+      </c>
+      <c r="P95" s="4" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -7426,7 +7445,7 @@
         <v>247</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K96" s="1" t="s">
         <v>305</v>
@@ -7438,16 +7457,16 @@
         <v>52</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="P96" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>517</v>
+      </c>
+      <c r="P96" s="4" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -7467,7 +7486,7 @@
         <v>215</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>307</v>
@@ -7476,7 +7495,7 @@
         <v>308</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K97" s="1" t="s">
         <v>309</v>
@@ -7488,16 +7507,16 @@
         <v>52</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="P97" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>518</v>
+      </c>
+      <c r="P97" s="4" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -7517,7 +7536,7 @@
         <v>215</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>307</v>
@@ -7526,7 +7545,7 @@
         <v>308</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K98" s="1" t="s">
         <v>311</v>
@@ -7541,13 +7560,13 @@
         <v>179</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>669</v>
-      </c>
-      <c r="P98" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>519</v>
+      </c>
+      <c r="P98" s="4" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -7567,7 +7586,7 @@
         <v>38</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>313</v>
@@ -7588,16 +7607,16 @@
         <v>52</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="P99" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>586</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -7617,7 +7636,7 @@
         <v>38</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>313</v>
@@ -7641,13 +7660,13 @@
         <v>186</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>587</v>
+      </c>
+      <c r="P100" s="4" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -7667,7 +7686,7 @@
         <v>103</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>317</v>
@@ -7676,7 +7695,7 @@
         <v>104</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K101" s="1" t="s">
         <v>318</v>
@@ -7688,16 +7707,16 @@
         <v>269</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+      <c r="P101" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -7717,7 +7736,7 @@
         <v>103</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>317</v>
@@ -7726,7 +7745,7 @@
         <v>104</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K102" s="1" t="s">
         <v>320</v>
@@ -7741,13 +7760,13 @@
         <v>243</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>520</v>
+      </c>
+      <c r="P102" s="4" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -7773,7 +7792,7 @@
         <v>14</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>322</v>
@@ -7788,16 +7807,16 @@
         <v>52</v>
       </c>
       <c r="N103" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="P103" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>588</v>
+      </c>
+      <c r="P103" s="4" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -7823,7 +7842,7 @@
         <v>14</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>322</v>
@@ -7841,13 +7860,13 @@
         <v>164</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>521</v>
+      </c>
+      <c r="P104" s="4" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -7867,7 +7886,7 @@
         <v>111</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>246</v>
@@ -7876,7 +7895,7 @@
         <v>105</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K105" s="1" t="s">
         <v>314</v>
@@ -7888,16 +7907,16 @@
         <v>52</v>
       </c>
       <c r="N105" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="P105" s="1" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>522</v>
+      </c>
+      <c r="P105" s="4" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -7917,7 +7936,7 @@
         <v>111</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>246</v>
@@ -7926,7 +7945,7 @@
         <v>105</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K106" s="1" t="s">
         <v>328</v>
@@ -7941,13 +7960,13 @@
         <v>186</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>523</v>
+      </c>
+      <c r="P106" s="4" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7967,7 +7986,7 @@
         <v>195</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>185</v>
@@ -7976,7 +7995,7 @@
         <v>330</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>331</v>
@@ -7991,13 +8010,13 @@
         <v>332</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="P107" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>524</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -8017,7 +8036,7 @@
         <v>195</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>75</v>
@@ -8026,7 +8045,7 @@
         <v>334</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K108" s="1" t="s">
         <v>335</v>
@@ -8041,13 +8060,13 @@
         <v>336</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>525</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -8067,7 +8086,7 @@
         <v>74</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>259</v>
@@ -8088,16 +8107,16 @@
         <v>52</v>
       </c>
       <c r="N109" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>526</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -8117,16 +8136,16 @@
         <v>12</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>298</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K110" s="1" t="s">
         <v>340</v>
@@ -8138,16 +8157,16 @@
         <v>52</v>
       </c>
       <c r="N110" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>527</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -8167,16 +8186,16 @@
         <v>12</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>298</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K111" s="1" t="s">
         <v>342</v>
@@ -8191,13 +8210,13 @@
         <v>343</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>528</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -8238,16 +8257,16 @@
         <v>52</v>
       </c>
       <c r="N112" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="P112" s="1" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>529</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -8276,7 +8295,7 @@
         <v>246</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K113" s="1" t="s">
         <v>285</v>
@@ -8291,13 +8310,13 @@
         <v>347</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>530</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -8317,7 +8336,7 @@
         <v>74</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>349</v>
@@ -8326,7 +8345,7 @@
         <v>350</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K114" s="1" t="s">
         <v>351</v>
@@ -8341,13 +8360,13 @@
         <v>352</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="P114" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>531</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -8367,7 +8386,7 @@
         <v>11</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>14</v>
@@ -8388,16 +8407,16 @@
         <v>52</v>
       </c>
       <c r="N115" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="P115" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>589</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -8417,7 +8436,7 @@
         <v>74</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>275</v>
@@ -8441,13 +8460,13 @@
         <v>273</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>532</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -8467,7 +8486,7 @@
         <v>38</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>189</v>
@@ -8488,16 +8507,16 @@
         <v>52</v>
       </c>
       <c r="N117" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -8517,7 +8536,7 @@
         <v>38</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>116</v>
@@ -8541,13 +8560,13 @@
         <v>23</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>533</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -8567,7 +8586,7 @@
         <v>38</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>189</v>
@@ -8588,16 +8607,16 @@
         <v>52</v>
       </c>
       <c r="N119" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="P119" s="1" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -8617,7 +8636,7 @@
         <v>38</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>189</v>
@@ -8641,13 +8660,13 @@
         <v>193</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="P120" s="1" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>534</v>
+      </c>
+      <c r="P120" s="4" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -8667,7 +8686,7 @@
         <v>38</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>368</v>
@@ -8688,16 +8707,16 @@
         <v>269</v>
       </c>
       <c r="N121" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="P121" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" ht="91" x14ac:dyDescent="0.15">
+        <v>535</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="92" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -8741,13 +8760,13 @@
         <v>213</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>536</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -8767,7 +8786,7 @@
         <v>215</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>317</v>
@@ -8791,13 +8810,13 @@
         <v>374</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="P123" s="1" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>537</v>
+      </c>
+      <c r="P123" s="4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -8838,16 +8857,16 @@
         <v>52</v>
       </c>
       <c r="N124" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="P124" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+        <v>538</v>
+      </c>
+      <c r="P124" s="4" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -8876,7 +8895,7 @@
         <v>308</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>378</v>
@@ -8891,13 +8910,13 @@
         <v>243</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="P125" s="1" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>539</v>
+      </c>
+      <c r="P125" s="4" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -8917,13 +8936,13 @@
         <v>103</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>104</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>196</v>
@@ -8941,13 +8960,13 @@
         <v>243</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="P126" s="1" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>540</v>
+      </c>
+      <c r="P126" s="4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -8967,16 +8986,16 @@
         <v>25</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>253</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K127" s="1" t="s">
         <v>381</v>
@@ -8991,13 +9010,13 @@
         <v>243</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="P127" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>541</v>
+      </c>
+      <c r="P127" s="4" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9017,7 +9036,7 @@
         <v>48</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>313</v>
@@ -9026,7 +9045,7 @@
         <v>383</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K128" s="1" t="s">
         <v>155</v>
@@ -9038,16 +9057,16 @@
         <v>52</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="P128" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>542</v>
+      </c>
+      <c r="P128" s="4" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9067,7 +9086,7 @@
         <v>74</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>97</v>
@@ -9088,16 +9107,16 @@
         <v>127</v>
       </c>
       <c r="N129" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="P129" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>543</v>
+      </c>
+      <c r="P129" s="4" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9117,13 +9136,13 @@
         <v>38</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>189</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>388</v>
@@ -9138,16 +9157,16 @@
         <v>52</v>
       </c>
       <c r="N130" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O130" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="P130" s="1" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>544</v>
+      </c>
+      <c r="P130" s="4" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9173,7 +9192,7 @@
         <v>97</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>384</v>
@@ -9191,13 +9210,13 @@
         <v>91</v>
       </c>
       <c r="O131" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="P131" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>545</v>
+      </c>
+      <c r="P131" s="4" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9238,16 +9257,16 @@
         <v>52</v>
       </c>
       <c r="N132" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O132" s="2" t="s">
-        <v>696</v>
-      </c>
-      <c r="P132" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>546</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9267,16 +9286,16 @@
         <v>74</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>185</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K133" s="1" t="s">
         <v>232</v>
@@ -9288,16 +9307,16 @@
         <v>269</v>
       </c>
       <c r="N133" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O133" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="P133" s="1" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>547</v>
+      </c>
+      <c r="P133" s="4" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9317,7 +9336,7 @@
         <v>74</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>50</v>
@@ -9338,16 +9357,16 @@
         <v>17</v>
       </c>
       <c r="N134" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O134" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="P134" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>548</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9367,13 +9386,13 @@
         <v>38</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>207</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J135" s="1" t="s">
         <v>281</v>
@@ -9391,13 +9410,13 @@
         <v>213</v>
       </c>
       <c r="O135" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="P135" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>549</v>
+      </c>
+      <c r="P135" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9417,13 +9436,13 @@
         <v>103</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>400</v>
       </c>
       <c r="I136" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J136" s="1" t="s">
         <v>401</v>
@@ -9441,13 +9460,13 @@
         <v>109</v>
       </c>
       <c r="O136" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="P136" s="1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>550</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9467,13 +9486,13 @@
         <v>25</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>142</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>85</v>
@@ -9491,13 +9510,13 @@
         <v>146</v>
       </c>
       <c r="O137" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="52" x14ac:dyDescent="0.15">
+        <v>551</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="53" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9517,7 +9536,7 @@
         <v>74</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>405</v>
@@ -9526,7 +9545,7 @@
         <v>406</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K138" s="1" t="s">
         <v>407</v>
@@ -9538,16 +9557,16 @@
         <v>269</v>
       </c>
       <c r="N138" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O138" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>552</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9588,16 +9607,16 @@
         <v>17</v>
       </c>
       <c r="N139" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O139" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="P139" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>553</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9641,13 +9660,13 @@
         <v>256</v>
       </c>
       <c r="O140" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="P140" s="1" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>554</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9688,16 +9707,16 @@
         <v>17</v>
       </c>
       <c r="N141" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O141" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="P141" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>555</v>
+      </c>
+      <c r="P141" s="4" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9741,13 +9760,13 @@
         <v>256</v>
       </c>
       <c r="O142" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="P142" s="1" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>556</v>
+      </c>
+      <c r="P142" s="4" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9788,16 +9807,16 @@
         <v>17</v>
       </c>
       <c r="N143" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O143" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="P143" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>557</v>
+      </c>
+      <c r="P143" s="4" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9817,7 +9836,7 @@
         <v>74</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>417</v>
@@ -9826,7 +9845,7 @@
         <v>280</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K144" s="1" t="s">
         <v>418</v>
@@ -9841,13 +9860,13 @@
         <v>107</v>
       </c>
       <c r="O144" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="P144" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="39" x14ac:dyDescent="0.15">
+        <v>558</v>
+      </c>
+      <c r="P144" s="4" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="40" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9873,10 +9892,10 @@
         <v>414</v>
       </c>
       <c r="I145" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K145" s="1" t="s">
         <v>421</v>
@@ -9888,16 +9907,16 @@
         <v>269</v>
       </c>
       <c r="N145" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O145" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="P145" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>559</v>
+      </c>
+      <c r="P145" s="4" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9923,10 +9942,10 @@
         <v>414</v>
       </c>
       <c r="I146" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K146" s="1" t="s">
         <v>423</v>
@@ -9938,16 +9957,16 @@
         <v>269</v>
       </c>
       <c r="N146" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O146" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="P146" s="1" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>560</v>
+      </c>
+      <c r="P146" s="4" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9973,10 +9992,10 @@
         <v>414</v>
       </c>
       <c r="I147" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K147" s="1" t="s">
         <v>124</v>
@@ -9988,16 +10007,16 @@
         <v>269</v>
       </c>
       <c r="N147" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O147" s="2" t="s">
-        <v>711</v>
-      </c>
-      <c r="P147" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>561</v>
+      </c>
+      <c r="P147" s="4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -10017,13 +10036,13 @@
         <v>30</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I148" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>426</v>
@@ -10038,16 +10057,16 @@
         <v>52</v>
       </c>
       <c r="N148" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O148" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="P148" s="1" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>562</v>
+      </c>
+      <c r="P148" s="4" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10067,13 +10086,13 @@
         <v>30</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>54</v>
       </c>
       <c r="I149" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>426</v>
@@ -10091,13 +10110,13 @@
         <v>243</v>
       </c>
       <c r="O149" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="P149" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+        <v>590</v>
+      </c>
+      <c r="P149" s="4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10123,7 +10142,7 @@
         <v>152</v>
       </c>
       <c r="I150" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>431</v>
@@ -10141,13 +10160,13 @@
         <v>432</v>
       </c>
       <c r="O150" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="P150" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="65" x14ac:dyDescent="0.15">
+        <v>563</v>
+      </c>
+      <c r="P150" s="4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="66" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10167,16 +10186,16 @@
         <v>215</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>414</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K151" s="1" t="s">
         <v>434</v>
@@ -10188,16 +10207,16 @@
         <v>269</v>
       </c>
       <c r="N151" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O151" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="26" x14ac:dyDescent="0.15">
+        <v>564</v>
+      </c>
+      <c r="P151" s="4" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="27" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10217,16 +10236,16 @@
         <v>215</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>216</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="K152" s="1" t="s">
         <v>232</v>
@@ -10238,16 +10257,169 @@
         <v>269</v>
       </c>
       <c r="N152" s="1" t="s">
-        <v>636</v>
+        <v>486</v>
       </c>
       <c r="O152" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="P152" s="1" t="s">
-        <v>460</v>
+        <v>565</v>
+      </c>
+      <c r="P152" s="4" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{0ABE5E4E-8C32-AB4D-8747-48D88419A7A0}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{C341E19B-A741-B142-8E44-CF5EB89DD7B4}"/>
+    <hyperlink ref="P4" r:id="rId3" xr:uid="{922D3997-8F6E-9643-9D20-05AEDE2B9AB1}"/>
+    <hyperlink ref="P5" r:id="rId4" xr:uid="{04776B3E-2E18-7842-8872-F0FAB736682A}"/>
+    <hyperlink ref="P6" r:id="rId5" xr:uid="{059F7EC3-EFE0-3A42-B0D6-4809749A0302}"/>
+    <hyperlink ref="P7" r:id="rId6" xr:uid="{1EAD6B07-7F94-B44F-BC76-EEB8F0AF50CB}"/>
+    <hyperlink ref="P8" r:id="rId7" xr:uid="{5A640F90-A431-634B-BF8B-6101E34612FB}"/>
+    <hyperlink ref="P9" r:id="rId8" xr:uid="{7D7B9100-670A-8244-B493-AF9EF0B42918}"/>
+    <hyperlink ref="P10" r:id="rId9" xr:uid="{9E351B72-741A-B644-8C63-E3B659E25431}"/>
+    <hyperlink ref="P11" r:id="rId10" xr:uid="{48569C80-F768-F84C-AC30-33596952FCD9}"/>
+    <hyperlink ref="P12" r:id="rId11" xr:uid="{19086824-D01F-EF4C-9346-88B5FFAC654F}"/>
+    <hyperlink ref="P13" r:id="rId12" xr:uid="{948BBABC-3FCC-914C-82D2-9D83DFAA4908}"/>
+    <hyperlink ref="P14" r:id="rId13" xr:uid="{0BBDBB75-EB71-CB42-BE45-2CBBC6CEC848}"/>
+    <hyperlink ref="P15" r:id="rId14" xr:uid="{ED61A0ED-D6CA-B94D-A54F-49398D1E2D41}"/>
+    <hyperlink ref="P16" r:id="rId15" xr:uid="{28B3C5A8-37FA-4D42-9586-7C7FE9511A7F}"/>
+    <hyperlink ref="P17" r:id="rId16" xr:uid="{18890E87-D6F5-CF49-9DE8-1D75AD0B3CD2}"/>
+    <hyperlink ref="P18" r:id="rId17" xr:uid="{6977C520-7039-3640-922D-24B9F5FC7826}"/>
+    <hyperlink ref="P19" r:id="rId18" xr:uid="{41E9A365-72FB-3541-957F-8D021B5D4AF6}"/>
+    <hyperlink ref="P20" r:id="rId19" xr:uid="{290296D4-3712-1940-8FF3-C521A32021BE}"/>
+    <hyperlink ref="P21" r:id="rId20" xr:uid="{B91FF1B7-F6D5-8245-AA2E-3D2DE5F7C583}"/>
+    <hyperlink ref="P22" r:id="rId21" xr:uid="{E1B26F21-0076-F74A-A434-3225C40ED9E7}"/>
+    <hyperlink ref="P23" r:id="rId22" xr:uid="{7A1A2776-87BA-DC49-A0A6-9C735C2C5E76}"/>
+    <hyperlink ref="P24" r:id="rId23" xr:uid="{5F8F0308-D328-3443-A63D-A47AF727D87D}"/>
+    <hyperlink ref="P25" r:id="rId24" xr:uid="{46620F60-1D87-9541-AF22-0EA188BA41D8}"/>
+    <hyperlink ref="P26" r:id="rId25" xr:uid="{7AA47E5E-2EF1-8B4E-AE28-9E64872995F2}"/>
+    <hyperlink ref="P27" r:id="rId26" xr:uid="{D7711B67-9A4B-DC46-9155-EAD9C85AF41D}"/>
+    <hyperlink ref="P28" r:id="rId27" xr:uid="{F0B69F14-1BF9-B84E-9219-443EA9E53C0F}"/>
+    <hyperlink ref="P29" r:id="rId28" xr:uid="{24F46369-F51B-B14A-BB20-8D66301ABD11}"/>
+    <hyperlink ref="P30" r:id="rId29" xr:uid="{66B012AD-810E-7A48-9A31-9E13B0FEFC12}"/>
+    <hyperlink ref="P31" r:id="rId30" xr:uid="{34300D7E-B186-B44F-B582-0FC92A3CEED5}"/>
+    <hyperlink ref="P32" r:id="rId31" xr:uid="{2B20E31F-5EFF-5344-8326-A718983EFEAA}"/>
+    <hyperlink ref="P33" r:id="rId32" xr:uid="{F1264761-5AE6-C646-8774-8A96D7BDB1A7}"/>
+    <hyperlink ref="P34" r:id="rId33" xr:uid="{E105C056-C2EB-414D-9B38-D1B137876A6D}"/>
+    <hyperlink ref="P35" r:id="rId34" xr:uid="{ED2D5502-4766-CD44-BF27-74D176EFD89A}"/>
+    <hyperlink ref="P36" r:id="rId35" xr:uid="{4B70CE7D-E48A-684B-89B3-EE42A09B7F74}"/>
+    <hyperlink ref="P37" r:id="rId36" xr:uid="{3DA422E5-CB3C-2F44-9248-657DD7A959A2}"/>
+    <hyperlink ref="P38" r:id="rId37" xr:uid="{1B12FFFC-4A80-7946-BF0F-A1BCB17E9614}"/>
+    <hyperlink ref="P39" r:id="rId38" xr:uid="{256D7DF9-D840-9E48-BD4F-F108A8AB7354}"/>
+    <hyperlink ref="P40" r:id="rId39" xr:uid="{DB3B8880-55FA-7E41-A01A-AAF5CFCA17D4}"/>
+    <hyperlink ref="P41" r:id="rId40" xr:uid="{22BE040C-2C0E-FE43-991D-33A3515B4881}"/>
+    <hyperlink ref="P42" r:id="rId41" xr:uid="{91EAE894-4B6D-5D4B-9F7C-2C3C12BE6337}"/>
+    <hyperlink ref="P43" r:id="rId42" xr:uid="{756BB38D-3B32-C94F-A7D3-1962DC7DEE07}"/>
+    <hyperlink ref="P44" r:id="rId43" xr:uid="{BE22140F-06ED-2B47-B463-7E32EFAA26C4}"/>
+    <hyperlink ref="P45" r:id="rId44" xr:uid="{5715ED7F-E13E-4548-8D42-A184BD38361B}"/>
+    <hyperlink ref="P46" r:id="rId45" xr:uid="{5E0ECD2A-C57D-C845-8681-D7ECDC650E42}"/>
+    <hyperlink ref="P47" r:id="rId46" xr:uid="{000BEC56-B68C-7141-ADA5-487329258E15}"/>
+    <hyperlink ref="P48" r:id="rId47" xr:uid="{E8BACC75-365D-2548-A37B-24EC2AB00F60}"/>
+    <hyperlink ref="P49" r:id="rId48" xr:uid="{D4919F48-3ADF-684C-BE95-15E3A83D6DAB}"/>
+    <hyperlink ref="P50" r:id="rId49" xr:uid="{6F8FDD8A-B9F8-4E41-9280-A7AB05EAF517}"/>
+    <hyperlink ref="P51" r:id="rId50" xr:uid="{692AA4C6-641D-2840-9C93-1A9A9E5F3508}"/>
+    <hyperlink ref="P52" r:id="rId51" xr:uid="{6DEC0839-C4E7-334C-A26A-2D5E619B6054}"/>
+    <hyperlink ref="P53" r:id="rId52" xr:uid="{CA2EFC82-B9E9-7C4F-9818-8356A3B3FA73}"/>
+    <hyperlink ref="P54" r:id="rId53" xr:uid="{EDE0609B-56F9-3444-BC28-FB03F551D259}"/>
+    <hyperlink ref="P55" r:id="rId54" xr:uid="{89D6563D-63F5-3448-97B0-AFF24577EE83}"/>
+    <hyperlink ref="P56" r:id="rId55" xr:uid="{B434361B-ACAA-4E4A-AD05-8A22CAFC340D}"/>
+    <hyperlink ref="P57" r:id="rId56" xr:uid="{6558C3A9-1778-1E4E-8A56-E4C9515D5102}"/>
+    <hyperlink ref="P58" r:id="rId57" xr:uid="{B0CDCD99-D5E8-F441-8F6F-15E0543013D3}"/>
+    <hyperlink ref="P59" r:id="rId58" xr:uid="{94B9FFFD-525F-0E49-8139-B57C708527AB}"/>
+    <hyperlink ref="P60" r:id="rId59" xr:uid="{2A951B76-5487-CE46-B8A7-9EB5A6010C44}"/>
+    <hyperlink ref="P61" r:id="rId60" xr:uid="{39014D3B-8F5A-1D42-932B-EF4C030D8DEC}"/>
+    <hyperlink ref="P62" r:id="rId61" xr:uid="{2B095490-40D0-6648-B924-F5B927695E40}"/>
+    <hyperlink ref="P63" r:id="rId62" xr:uid="{8B57D87A-A2E9-9E45-A5BD-0F8DA4911435}"/>
+    <hyperlink ref="P64" r:id="rId63" xr:uid="{D1E47C3D-E034-494A-B403-88900ABA8A28}"/>
+    <hyperlink ref="P65" r:id="rId64" xr:uid="{3EE28C7E-E649-944F-854E-534CE2FE9626}"/>
+    <hyperlink ref="P66" r:id="rId65" xr:uid="{791F1C9D-70F4-A547-A01D-B9BA33DDE93B}"/>
+    <hyperlink ref="P67" r:id="rId66" xr:uid="{E4E653FC-D7FB-B24C-A685-F21CDD5BECB8}"/>
+    <hyperlink ref="P68" r:id="rId67" xr:uid="{3DE61D2F-9670-4F42-BDE3-B242F276A8F8}"/>
+    <hyperlink ref="P69" r:id="rId68" xr:uid="{5060583B-73E6-5B4F-9FFE-11188F7DCB61}"/>
+    <hyperlink ref="P70" r:id="rId69" xr:uid="{1DC9F932-F4E4-8F42-AF85-B715070DD750}"/>
+    <hyperlink ref="P71" r:id="rId70" xr:uid="{D197AAE7-BAC2-6D40-A26E-3A2FD20CB8B5}"/>
+    <hyperlink ref="P72" r:id="rId71" xr:uid="{10F0C58B-F5C8-D245-8FF6-F29F560099B6}"/>
+    <hyperlink ref="P73" r:id="rId72" xr:uid="{A7415D69-3E60-934D-A441-3F089D3D6199}"/>
+    <hyperlink ref="P74" r:id="rId73" xr:uid="{C7BC24C9-B2A5-454F-A3D6-83966D45AD27}"/>
+    <hyperlink ref="P75" r:id="rId74" xr:uid="{2A8DCA49-30AF-0A41-A3C6-6C5046B269E7}"/>
+    <hyperlink ref="P76" r:id="rId75" xr:uid="{E1011F1C-7A5D-9F43-9217-8223A23D9548}"/>
+    <hyperlink ref="P77" r:id="rId76" xr:uid="{56D4547B-7F09-854D-A506-3736B0F59AB6}"/>
+    <hyperlink ref="P78" r:id="rId77" xr:uid="{F848AEC2-CCA8-DC46-83B6-9FF7823DC6BE}"/>
+    <hyperlink ref="P79" r:id="rId78" xr:uid="{EBE71F87-8347-C64F-9C26-95589FBD998C}"/>
+    <hyperlink ref="P80" r:id="rId79" xr:uid="{C4792C06-15A0-2849-8EBC-33D5150CC849}"/>
+    <hyperlink ref="P81" r:id="rId80" xr:uid="{A951F67B-3B7A-4F45-B87A-541CA9355DB8}"/>
+    <hyperlink ref="P82" r:id="rId81" xr:uid="{70BEBECA-11D1-8247-8058-16147132BA66}"/>
+    <hyperlink ref="P83" r:id="rId82" xr:uid="{B4D67F40-F7A4-3440-BC0C-CEB609C1B280}"/>
+    <hyperlink ref="P84" r:id="rId83" xr:uid="{01EAC3E0-0752-1D41-B247-5643B6E5A299}"/>
+    <hyperlink ref="P85" r:id="rId84" xr:uid="{5A837EA1-4A21-8C45-A80D-699E25C49BFF}"/>
+    <hyperlink ref="P86" r:id="rId85" xr:uid="{7F9A3808-CD0D-A44B-B66C-80BAA03DB4BF}"/>
+    <hyperlink ref="P87" r:id="rId86" xr:uid="{BA9BBD3A-36E0-804C-A6CF-44FF2EAD034B}"/>
+    <hyperlink ref="P88" r:id="rId87" xr:uid="{EDA14AD0-16E5-C44D-8EF5-3E5474680B4D}"/>
+    <hyperlink ref="P89" r:id="rId88" xr:uid="{59D382FF-3DF3-ED40-8536-CBA605804B87}"/>
+    <hyperlink ref="P90" r:id="rId89" xr:uid="{1A5E2843-352F-5949-B3FB-5FBF4CDE3458}"/>
+    <hyperlink ref="P91" r:id="rId90" xr:uid="{3318E959-A57B-F845-AEA1-4B16B18150A7}"/>
+    <hyperlink ref="P92" r:id="rId91" xr:uid="{58577E29-D5FD-1D4A-9178-AE73683F6DD0}"/>
+    <hyperlink ref="P93" r:id="rId92" xr:uid="{3388B07E-6408-0B4A-832B-F860BABA8F51}"/>
+    <hyperlink ref="P94" r:id="rId93" xr:uid="{29CEDD6F-6D1D-3F4E-BBA2-0080F55C59B6}"/>
+    <hyperlink ref="P95" r:id="rId94" xr:uid="{BB5382C9-EBAA-7146-9FDB-6BD8954024A2}"/>
+    <hyperlink ref="P96" r:id="rId95" xr:uid="{5186ACF5-5A14-2340-92B4-5CBE3C20C8DD}"/>
+    <hyperlink ref="P97" r:id="rId96" xr:uid="{59976BEB-D487-754E-808C-542CE5E7A8DD}"/>
+    <hyperlink ref="P98" r:id="rId97" xr:uid="{10968FA8-4236-B54B-A4A3-D5F62F9706C6}"/>
+    <hyperlink ref="P99" r:id="rId98" xr:uid="{9FC0C3AF-48AC-F543-82FF-25061D60D1CA}"/>
+    <hyperlink ref="P100" r:id="rId99" xr:uid="{627C2553-71CC-AA46-92B2-E29BD5423E5E}"/>
+    <hyperlink ref="P101" r:id="rId100" xr:uid="{E5E35635-A345-B44B-94FF-328FEE12C630}"/>
+    <hyperlink ref="P102" r:id="rId101" xr:uid="{36285CDB-B1D3-374F-81F4-28C0794D1FEE}"/>
+    <hyperlink ref="P103" r:id="rId102" xr:uid="{48A8D0E3-CFCA-2A4D-A9B1-4601D5277130}"/>
+    <hyperlink ref="P104" r:id="rId103" xr:uid="{892A7156-74E3-BE48-949A-0F2EA1515B7B}"/>
+    <hyperlink ref="P105" r:id="rId104" xr:uid="{BAE93EF5-9BFA-4249-88D4-C0940397B471}"/>
+    <hyperlink ref="P106" r:id="rId105" xr:uid="{79BF9484-EF14-5340-ADFD-5396FC7C4A79}"/>
+    <hyperlink ref="P107" r:id="rId106" xr:uid="{EE438869-E3EE-074B-919A-C05FB822F014}"/>
+    <hyperlink ref="P108" r:id="rId107" xr:uid="{8FB1FBA2-74AE-7147-A697-A5025815C4A4}"/>
+    <hyperlink ref="P109" r:id="rId108" xr:uid="{6A1D8ABB-B351-0849-8EB4-70DD439F8757}"/>
+    <hyperlink ref="P110" r:id="rId109" xr:uid="{96060268-DEB9-B345-9582-AA8B54206FF4}"/>
+    <hyperlink ref="P111" r:id="rId110" xr:uid="{BBF1676E-7236-A94E-A243-8CD469222960}"/>
+    <hyperlink ref="P112" r:id="rId111" xr:uid="{3B8E46F3-991A-6F40-B135-F04EF9C4FCB1}"/>
+    <hyperlink ref="P113" r:id="rId112" xr:uid="{C2F9A422-1287-7040-9F59-68FC4E9FAB95}"/>
+    <hyperlink ref="P114" r:id="rId113" xr:uid="{DF87D71D-517D-7043-A654-26470A2BB3CA}"/>
+    <hyperlink ref="P115" r:id="rId114" xr:uid="{77CDC46B-5A36-8C48-B9AB-B04EC40AE14A}"/>
+    <hyperlink ref="P116" r:id="rId115" xr:uid="{8E0941F5-3F09-8747-AB52-D12283B7B763}"/>
+    <hyperlink ref="P117" r:id="rId116" xr:uid="{4E9B8526-5EEA-1947-900C-40F06FF82102}"/>
+    <hyperlink ref="P118" r:id="rId117" xr:uid="{AEA2CBDD-80A2-F042-82E7-0A770D485174}"/>
+    <hyperlink ref="P119" r:id="rId118" xr:uid="{A2C51FBC-C4B0-7E49-928B-8573A0D0C1D1}"/>
+    <hyperlink ref="P120" r:id="rId119" xr:uid="{BD2F09D3-482C-D24E-84EC-1FABFC20FDB5}"/>
+    <hyperlink ref="P121" r:id="rId120" xr:uid="{806FAB9E-A8E7-5A46-955F-1C16C7860E77}"/>
+    <hyperlink ref="P122" r:id="rId121" xr:uid="{2BD1BA06-AADE-E64E-B56A-2F4F4E178AFA}"/>
+    <hyperlink ref="P123" r:id="rId122" xr:uid="{E75301E3-3973-9247-9E38-075538699DC7}"/>
+    <hyperlink ref="P124" r:id="rId123" xr:uid="{2A7FF0DC-8D5D-124D-A0EB-E92FFEE62168}"/>
+    <hyperlink ref="P125" r:id="rId124" xr:uid="{E238C3EF-3F00-2148-A086-E2CBD411F495}"/>
+    <hyperlink ref="P126" r:id="rId125" xr:uid="{5022EC98-B0CE-914F-A876-EF31E9784C4D}"/>
+    <hyperlink ref="P127" r:id="rId126" xr:uid="{AABA42D3-CA76-1040-BA3A-F45922C84E2C}"/>
+    <hyperlink ref="P128" r:id="rId127" xr:uid="{CB310A34-21DF-5046-93E2-5065CF1B9981}"/>
+    <hyperlink ref="P129" r:id="rId128" xr:uid="{40C85974-6096-0A47-AE4A-B5E434D430B8}"/>
+    <hyperlink ref="P130" r:id="rId129" xr:uid="{A19B6AF0-2E2E-8248-AA99-784E4A94C384}"/>
+    <hyperlink ref="P131" r:id="rId130" xr:uid="{4E794582-2639-7643-A8A6-AEAC96818D3B}"/>
+    <hyperlink ref="P132" r:id="rId131" xr:uid="{DFBCA7FB-58AD-DA49-B998-426A8655A06E}"/>
+    <hyperlink ref="P133" r:id="rId132" xr:uid="{7D79AF7F-C75E-CB49-95F8-F188BEE72E39}"/>
+    <hyperlink ref="P134" r:id="rId133" xr:uid="{6BD21A67-2FB4-6A4E-AB63-733DF7AA50EA}"/>
+    <hyperlink ref="P135" r:id="rId134" xr:uid="{DE8863A5-7C69-3441-B9D9-E20F7CF3F4F0}"/>
+    <hyperlink ref="P136" r:id="rId135" xr:uid="{0154FB24-F909-7947-8DDC-6D634678CCF5}"/>
+    <hyperlink ref="P137" r:id="rId136" xr:uid="{CFCB8A69-6E40-6D46-8FB9-B6E6CC8CBE38}"/>
+    <hyperlink ref="P138" r:id="rId137" xr:uid="{6EC8A59A-A8EF-4E4A-A8AF-46B04350976C}"/>
+    <hyperlink ref="P139" r:id="rId138" xr:uid="{A9B21139-0A0C-B44F-8A9C-CBACDDAEC8AF}"/>
+    <hyperlink ref="P140" r:id="rId139" xr:uid="{4A046692-59F6-F445-AAAF-045BA0A4F981}"/>
+    <hyperlink ref="P141" r:id="rId140" xr:uid="{F501733D-AC80-3946-B8BE-E0AA8D6CFE7B}"/>
+    <hyperlink ref="P142" r:id="rId141" xr:uid="{EDB42237-20AE-8442-A8AC-42B353DAD8DA}"/>
+    <hyperlink ref="P143" r:id="rId142" xr:uid="{2D8B5A0D-92F2-014F-A2AD-01CAADA83CD8}"/>
+    <hyperlink ref="P144" r:id="rId143" xr:uid="{6AC26B98-08D8-694C-BDCB-1043E757CF8F}"/>
+    <hyperlink ref="P145" r:id="rId144" xr:uid="{A0C4CB54-DD99-1745-B0D8-E79873A06BD8}"/>
+    <hyperlink ref="P146" r:id="rId145" xr:uid="{23FE36B4-44E6-4B46-867F-CDA799ACEC8E}"/>
+    <hyperlink ref="P147" r:id="rId146" xr:uid="{284A3DB7-ACC4-E346-951A-5409C5D5CB91}"/>
+    <hyperlink ref="P148" r:id="rId147" xr:uid="{D6E7F1C1-46B9-5C41-93A5-9D1061143E4B}"/>
+    <hyperlink ref="P149" r:id="rId148" xr:uid="{AEE1867D-7140-634F-93B2-05D41CF68651}"/>
+    <hyperlink ref="P150" r:id="rId149" xr:uid="{86A404C6-BE9F-6443-B40E-3CB6B397CFFC}"/>
+    <hyperlink ref="P151" r:id="rId150" xr:uid="{87AD555A-E079-0245-AFBA-7052A984B84E}"/>
+    <hyperlink ref="P152" r:id="rId151" xr:uid="{09B59642-FF55-1C47-8157-B98C5C958622}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>